--- a/outputs-HGR-r202/o__Actinomycetales.xlsx
+++ b/outputs-HGR-r202/o__Actinomycetales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,28 +498,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00305191991887356</v>
+        <v>0.006153701029606903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9655043350769147</v>
+        <v>0.981214893722265</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005487415046704473</v>
+        <v>0.008710494493869177</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008077006544916552</v>
+        <v>0.003309300232238108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01196156377268902</v>
+        <v>2.220499988567572e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001452559788154582</v>
+        <v>2.220499988567572e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004465199851747139</v>
+        <v>0.0006116105219763952</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9655043350769147</v>
+        <v>0.981214893722265</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -539,28 +539,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0003584224231909292</v>
+        <v>0.001121031892478642</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9956328013666059</v>
+        <v>0.9918574945893268</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003751782685484143</v>
+        <v>0.006769660533141974</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001135798482592701</v>
+        <v>0.0002057826249554471</v>
       </c>
       <c r="F3" t="n">
-        <v>2.219996654052546e-14</v>
+        <v>2.220021123142177e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>1.056393317049546e-06</v>
+        <v>2.220021123142177e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001423572831206376</v>
+        <v>4.603036005267244e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9956328013666059</v>
+        <v>0.9918574945893268</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.128978930506514e-05</v>
+        <v>0.0001304634512549719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9945775767598203</v>
+        <v>0.9917951765411522</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005241454583659562</v>
+        <v>0.007951520002430625</v>
       </c>
       <c r="E4" t="n">
-        <v>8.138184612914669e-05</v>
+        <v>0.0001174380588976876</v>
       </c>
       <c r="F4" t="n">
-        <v>2.219899825103892e-14</v>
+        <v>2.219839017665731e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>1.242190821347964e-06</v>
+        <v>2.219839017665731e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>4.705483024248519e-05</v>
+        <v>5.401946220027181e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9945775767598203</v>
+        <v>0.9917951765411522</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -617,73 +617,73 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1826.fa</t>
+          <t>even_MAG-GUT15625.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007367508223976248</v>
+        <v>0.7053067649407909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9571494293089906</v>
+        <v>0.1961945862601358</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004862843940553248</v>
+        <v>0.09833125563446415</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004926450160635094</v>
+        <v>0.0001661965111800904</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01621779924564893</v>
+        <v>2.449536361859797e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001794798241246752</v>
+        <v>2.490337502826227e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007681170878949072</v>
+        <v>1.196653380011392e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9571494293089906</v>
+        <v>0.7053067649407909</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>f__Bifidobacteriaceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>f__Bifidobacteriaceae</t>
+          <t>f__Actinomycetaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2058.fa</t>
+          <t>even_MAG-GUT1826.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001015456646370701</v>
+        <v>0.013888564326735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9901253128585031</v>
+        <v>0.9701420510495146</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006213255417374958</v>
+        <v>0.0128132879055304</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001079286381826879</v>
+        <v>0.002646770116749582</v>
       </c>
       <c r="F6" t="n">
-        <v>2.22022652998825e-14</v>
+        <v>2.220861605694031e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>1.033680556467579e-06</v>
+        <v>2.220861605694031e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001565655015345523</v>
+        <v>0.0005093266014260862</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9901253128585031</v>
+        <v>0.9701420510495146</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -699,32 +699,32 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2079.fa</t>
+          <t>even_MAG-GUT2058.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.359806361402867e-05</v>
+        <v>0.003875723266513544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9805619802872283</v>
+        <v>0.9808848539830868</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01896470161584283</v>
+        <v>0.01395740711440923</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003715728023682959</v>
+        <v>0.001047958062504156</v>
       </c>
       <c r="F7" t="n">
-        <v>2.219448682778822e-14</v>
+        <v>2.220172874579408e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>8.682732369948333e-06</v>
+        <v>2.220172874579408e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>3.946449855451987e-05</v>
+        <v>0.0002340575734417339</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9805619802872283</v>
+        <v>0.9808848539830868</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -740,32 +740,32 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23723.fa</t>
+          <t>even_MAG-GUT2079.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001549003214153059</v>
+        <v>0.001049637277137177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.986880912966703</v>
+        <v>0.9719859010119624</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004470876832720362</v>
+        <v>0.02671784442215352</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004540439605257819</v>
+        <v>0.000240260653695005</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220186385940529e-14</v>
+        <v>2.219176516231241e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>6.745940718715509e-07</v>
+        <v>2.219176516231241e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002558092787071496</v>
+        <v>6.356635007562628e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.986880912966703</v>
+        <v>0.9719859010119624</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -781,32 +781,32 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28721.fa</t>
+          <t>even_MAG-GUT23346.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.507306042134854e-05</v>
+        <v>0.009479026154093422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9946735936096955</v>
+        <v>0.9717185301406128</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004265276134887246</v>
+        <v>0.01365098696339008</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000293107194683855</v>
+        <v>0.002688222482532621</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220058690500607e-14</v>
+        <v>2.220894252127564e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>6.861229448617368e-07</v>
+        <v>2.220894252127564e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006922638773449661</v>
+        <v>0.002463234259326764</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9946735936096955</v>
+        <v>0.9717185301406128</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -822,32 +822,32 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28738.fa</t>
+          <t>even_MAG-GUT23723.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001225754951192414</v>
+        <v>0.007491079121463753</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9938987716560911</v>
+        <v>0.9779055937625307</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005442499491460817</v>
+        <v>0.01091156725897297</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0003727778618864756</v>
+        <v>0.003218473871897165</v>
       </c>
       <c r="F10" t="n">
-        <v>2.219963019508799e-14</v>
+        <v>2.220648434723078e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>7.638166835398597e-07</v>
+        <v>2.220648434723078e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001626116787367555</v>
+        <v>0.0004732859850909731</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9938987716560911</v>
+        <v>0.9779055937625307</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -863,32 +863,32 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36138.fa</t>
+          <t>even_MAG-GUT26586.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0001032424805172489</v>
+        <v>0.0002806002939629626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9777532754882641</v>
+        <v>0.9917200129269886</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0217945087127193</v>
+        <v>0.007584283167476459</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002999262007269766</v>
+        <v>0.0003043604981776286</v>
       </c>
       <c r="F11" t="n">
-        <v>2.219390189419213e-14</v>
+        <v>2.219881930257977e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>4.427171123174491e-06</v>
+        <v>2.219881930257977e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>4.461994662698189e-05</v>
+        <v>0.0001107431133498231</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9777532754882641</v>
+        <v>0.9917200129269886</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -904,32 +904,32 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37090.fa</t>
+          <t>even_MAG-GUT28721.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001244701701945411</v>
+        <v>0.0006643585831319292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9944447627158798</v>
+        <v>0.9892570223008738</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005207945461759685</v>
+        <v>0.00972751322212061</v>
       </c>
       <c r="E12" t="n">
-        <v>6.142744048073921e-05</v>
+        <v>0.0002666845128381765</v>
       </c>
       <c r="F12" t="n">
-        <v>2.219923961865121e-14</v>
+        <v>2.219839049796715e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>9.055192597146213e-07</v>
+        <v>2.219839049796715e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001604886924034581</v>
+        <v>8.442138099103004e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9944447627158798</v>
+        <v>0.9892570223008738</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -945,32 +945,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT408.fa</t>
+          <t>even_MAG-GUT28738.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0008969981095224102</v>
+        <v>0.001624375080570115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9736340694832351</v>
+        <v>0.9878511193160719</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003051258754769848</v>
+        <v>0.009949585578354446</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01042818276058485</v>
+        <v>0.0004587680162672773</v>
       </c>
       <c r="F13" t="n">
-        <v>2.220428894626844e-14</v>
+        <v>2.219970956390314e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>8.205483935345582e-07</v>
+        <v>2.219970956390314e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01198867034347201</v>
+        <v>0.0001161520086916598</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9736340694832351</v>
+        <v>0.9878511193160719</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -986,32 +986,32 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT409.fa</t>
+          <t>even_MAG-GUT36138.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006906112282200291</v>
+        <v>0.001316569681608488</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9825132401346192</v>
+        <v>0.9595085364841452</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002996365950687206</v>
+        <v>0.03884141945799639</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004349418358344795</v>
+        <v>0.0003278689361711409</v>
       </c>
       <c r="F14" t="n">
-        <v>2.220349856614355e-14</v>
+        <v>2.218775059381545e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>8.930282943668068e-07</v>
+        <v>2.218775059381545e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009449471299812285</v>
+        <v>5.605440034432553e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9825132401346192</v>
+        <v>0.9595085364841452</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1027,32 +1027,32 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT412.fa</t>
+          <t>even_MAG-GUT37090.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004224047317392656</v>
+        <v>0.0008252117015301546</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9343205164385703</v>
+        <v>0.9859374185048031</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005208614055525788</v>
+        <v>0.01309512239228752</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01245049824039214</v>
+        <v>0.0001212195864250611</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0247128480898733</v>
+        <v>2.219686202705969e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002257303949055365</v>
+        <v>2.219686202705969e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01682617190919028</v>
+        <v>2.102781490962574e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9343205164385703</v>
+        <v>0.9859374185048031</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1068,32 +1068,32 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT418.fa</t>
+          <t>even_MAG-GUT408.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.002532755294157335</v>
+        <v>0.005702773746977198</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9689856755636533</v>
+        <v>0.9768743653896014</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004143395784224029</v>
+        <v>0.007708166921182363</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004180191532692238</v>
+        <v>0.007024029899509587</v>
       </c>
       <c r="F16" t="n">
-        <v>2.219941037271319e-14</v>
+        <v>2.220842671556776e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>1.661692319125111e-06</v>
+        <v>2.220842671556776e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02015632013293169</v>
+        <v>0.002690664042685102</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9689856755636533</v>
+        <v>0.9768743653896014</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1109,32 +1109,32 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT420.fa</t>
+          <t>even_MAG-GUT409.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01609642154356786</v>
+        <v>0.004658372949615748</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8915695670450768</v>
+        <v>0.9806096011962738</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006614833276581352</v>
+        <v>0.009308177938131284</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007385383846106165</v>
+        <v>0.004056098977747417</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06125014783530829</v>
+        <v>2.220579795794305e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003517128809530363</v>
+        <v>2.220579795794305e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01356651764382911</v>
+        <v>0.001367748938187315</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8915695670450768</v>
+        <v>0.9806096011962738</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1150,32 +1150,32 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT421.fa</t>
+          <t>even_MAG-GUT412.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004663724128459946</v>
+        <v>0.003917568436490917</v>
       </c>
       <c r="C18" t="n">
-        <v>0.985978253041334</v>
+        <v>0.9731993246562054</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003771549655486767</v>
+        <v>0.01244356197436978</v>
       </c>
       <c r="E18" t="n">
-        <v>0.004013226537669145</v>
+        <v>0.00857258047736245</v>
       </c>
       <c r="F18" t="n">
-        <v>2.220418795703732e-14</v>
+        <v>2.220731696895491e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>8.919806911314801e-07</v>
+        <v>2.220731696895491e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005769706371950753</v>
+        <v>0.001866964455527056</v>
       </c>
       <c r="I18" t="n">
-        <v>0.985978253041334</v>
+        <v>0.9731993246562054</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1191,32 +1191,32 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT422.fa</t>
+          <t>even_MAG-GUT418.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005198439667283517</v>
+        <v>0.005694010112847582</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9248658666033603</v>
+        <v>0.976764502377399</v>
       </c>
       <c r="D19" t="n">
-        <v>0.006133604991932893</v>
+        <v>0.01300249618257227</v>
       </c>
       <c r="E19" t="n">
-        <v>0.008335978542000298</v>
+        <v>0.003218798941323647</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03007589548511721</v>
+        <v>2.220565714485641e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002550589445930343</v>
+        <v>2.220565714485641e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02283962526437541</v>
+        <v>0.001320192385813182</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9248658666033603</v>
+        <v>0.976764502377399</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1232,32 +1232,32 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT423.fa</t>
+          <t>even_MAG-GUT420.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0008514076727118069</v>
+        <v>0.02166466410317</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9713200696376318</v>
+        <v>0.9624741366787323</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003197984625386464</v>
+        <v>0.01117006071426962</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004676396469814089</v>
+        <v>0.003661714817996234</v>
       </c>
       <c r="F20" t="n">
-        <v>2.2203303725595e-14</v>
+        <v>2.220888687912521e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>1.000920992001493e-06</v>
+        <v>2.220888687912521e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01995314067344178</v>
+        <v>0.001029423685787457</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9713200696376318</v>
+        <v>0.9624741366787323</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1273,32 +1273,32 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT425.fa</t>
+          <t>even_MAG-GUT421.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002765827128430193</v>
+        <v>0.002109998521004538</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9725858480979566</v>
+        <v>0.9804946139485876</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006100173018109314</v>
+        <v>0.0116990310976749</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01052018906523376</v>
+        <v>0.004202908864683709</v>
       </c>
       <c r="F21" t="n">
-        <v>2.739022184746387e-14</v>
+        <v>2.220463032571621e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>1.337861437539815e-06</v>
+        <v>2.220463032571621e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>0.008026624828805298</v>
+        <v>0.001493447568004918</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9725858480979566</v>
+        <v>0.9804946139485876</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1314,32 +1314,32 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT429.fa</t>
+          <t>even_MAG-GUT422.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.006202229753581558</v>
+        <v>0.00921884070630948</v>
       </c>
       <c r="C22" t="n">
-        <v>0.954123463555177</v>
+        <v>0.9628370616550986</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004497916449489035</v>
+        <v>0.01960415605261909</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005453732301473765</v>
+        <v>0.006373119904128808</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01879291298200159</v>
+        <v>2.220956050493314e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002055715578461939</v>
+        <v>2.220956050493314e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>0.008874029379815233</v>
+        <v>0.001966821681799576</v>
       </c>
       <c r="I22" t="n">
-        <v>0.954123463555177</v>
+        <v>0.9628370616550986</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1355,32 +1355,32 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT430.fa</t>
+          <t>even_MAG-GUT423.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.003094678775138358</v>
+        <v>0.003647206738120814</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9528598853203472</v>
+        <v>0.9772359195090058</v>
       </c>
       <c r="D23" t="n">
-        <v>0.006181725214234022</v>
+        <v>0.01049693581633764</v>
       </c>
       <c r="E23" t="n">
-        <v>0.007850110791124</v>
+        <v>0.005403803815420151</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01601191076204831</v>
+        <v>2.22071631281469e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00169727685440948</v>
+        <v>2.22071631281469e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0123044122826985</v>
+        <v>0.003216134121071343</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9528598853203472</v>
+        <v>0.9772359195090058</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1396,32 +1396,32 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT431.fa</t>
+          <t>even_MAG-GUT425.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.002644307541411117</v>
+        <v>0.005738048784954062</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9526890134152878</v>
+        <v>0.9752560736558775</v>
       </c>
       <c r="D24" t="n">
-        <v>0.006940880071004819</v>
+        <v>0.01064510655355512</v>
       </c>
       <c r="E24" t="n">
-        <v>0.007063278367388453</v>
+        <v>0.006961298092112761</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01526665197385424</v>
+        <v>2.22067017310044e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001619378155146573</v>
+        <v>2.22067017310044e-14</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01377649047590696</v>
+        <v>0.001399472913456106</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9526890134152878</v>
+        <v>0.9752560736558775</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1437,32 +1437,32 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT432.fa</t>
+          <t>even_MAG-GUT429.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001079446020966873</v>
+        <v>0.01300956678627922</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9809841770447872</v>
+        <v>0.9751091928536288</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00468084991204439</v>
+        <v>0.008491455662497703</v>
       </c>
       <c r="E25" t="n">
-        <v>0.009070340757547436</v>
+        <v>0.002794411823541416</v>
       </c>
       <c r="F25" t="n">
-        <v>2.220125445145084e-14</v>
+        <v>2.220672782958795e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>7.448254081468397e-07</v>
+        <v>2.220672782958795e-14</v>
       </c>
       <c r="H25" t="n">
-        <v>0.004184441439223793</v>
+        <v>0.0005953728740084525</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9809841770447872</v>
+        <v>0.9751091928536288</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1478,32 +1478,32 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT433.fa</t>
+          <t>even_MAG-GUT430.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.000740159160382348</v>
+        <v>0.00496702741823895</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9790794988460456</v>
+        <v>0.9692912207321089</v>
       </c>
       <c r="D26" t="n">
-        <v>0.004986853538814927</v>
+        <v>0.01767904226034962</v>
       </c>
       <c r="E26" t="n">
-        <v>0.008115637986058726</v>
+        <v>0.006213518473062534</v>
       </c>
       <c r="F26" t="n">
-        <v>2.22035611460493e-14</v>
+        <v>2.22068431395179e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>8.788591632857311e-07</v>
+        <v>2.22068431395179e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0.007076971609512967</v>
+        <v>0.001849191116195568</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9790794988460456</v>
+        <v>0.9692912207321089</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1519,32 +1519,32 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT435.fa</t>
+          <t>even_MAG-GUT431.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.008396261033612072</v>
+        <v>0.004254846571072766</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8403941209422325</v>
+        <v>0.9673047864127046</v>
       </c>
       <c r="D27" t="n">
-        <v>0.007482366127570773</v>
+        <v>0.02337317502043112</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0116513030706618</v>
+        <v>0.00407441927649812</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1138962867293604</v>
+        <v>2.220351475758325e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.004022973993428972</v>
+        <v>2.220351475758325e-14</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01415668810313347</v>
+        <v>0.000992772719248958</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8403941209422325</v>
+        <v>0.9673047864127046</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1560,32 +1560,32 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43623.fa</t>
+          <t>even_MAG-GUT432.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.008122168511173334</v>
+        <v>0.007007966921385551</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9464162380672183</v>
+        <v>0.9769651363447288</v>
       </c>
       <c r="D28" t="n">
-        <v>0.005312166936660086</v>
+        <v>0.01043985197305671</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0061043746478752</v>
+        <v>0.004593017540851088</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02376600875936629</v>
+        <v>2.220654471372599e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00238847082894105</v>
+        <v>2.220654471372599e-14</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00789057224876573</v>
+        <v>0.0009940272199333252</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9464162380672183</v>
+        <v>0.9769651363447288</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1601,73 +1601,73 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43934.fa</t>
+          <t>even_MAG-GUT43254.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001825358096279183</v>
+        <v>0.7931736401915486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.965944724183177</v>
+        <v>0.03143681190407308</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003451790578040142</v>
+        <v>0.04046279068620604</v>
       </c>
       <c r="E29" t="n">
-        <v>0.008985569056507988</v>
+        <v>0.004870242991690527</v>
       </c>
       <c r="F29" t="n">
-        <v>2.220117129397815e-14</v>
+        <v>0.1221530446365511</v>
       </c>
       <c r="G29" t="n">
-        <v>1.064252049972594e-06</v>
+        <v>0.003906706817719863</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01979149383392352</v>
+        <v>0.003996762772210872</v>
       </c>
       <c r="I29" t="n">
-        <v>0.965944724183177</v>
+        <v>0.7931736401915486</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>f__Bifidobacteriaceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>f__Bifidobacteriaceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT444.fa</t>
+          <t>even_MAG-GUT433.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003427507238458514</v>
+        <v>0.004322587752386262</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9518659599327856</v>
+        <v>0.9762704758175058</v>
       </c>
       <c r="D30" t="n">
-        <v>0.006259969173040524</v>
+        <v>0.01259323339697579</v>
       </c>
       <c r="E30" t="n">
-        <v>0.009337121242719952</v>
+        <v>0.00528372041049677</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01717946803503827</v>
+        <v>2.220688645189688e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00180119932717209</v>
+        <v>2.220688645189688e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01012877505078528</v>
+        <v>0.001529982622590954</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9518659599327856</v>
+        <v>0.9762704758175058</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1683,32 +1683,32 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT445.fa</t>
+          <t>even_MAG-GUT435.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001145250323164827</v>
+        <v>0.008095053170460357</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9828205683201998</v>
+        <v>0.9673263704532077</v>
       </c>
       <c r="D31" t="n">
-        <v>0.004668571971612655</v>
+        <v>0.01560395557802563</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003782662010375745</v>
+        <v>0.007593439766096553</v>
       </c>
       <c r="F31" t="n">
-        <v>2.220298327260611e-14</v>
+        <v>2.220738341625869e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>8.636216574136138e-07</v>
+        <v>2.220738341625869e-14</v>
       </c>
       <c r="H31" t="n">
-        <v>0.007582083752967391</v>
+        <v>0.001381181032165491</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9828205683201998</v>
+        <v>0.9673263704532077</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1724,32 +1724,32 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT446.fa</t>
+          <t>even_MAG-GUT43623.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01078724814564125</v>
+        <v>0.008164870836208817</v>
       </c>
       <c r="C32" t="n">
-        <v>0.892112417170097</v>
+        <v>0.9787509340587289</v>
       </c>
       <c r="D32" t="n">
-        <v>0.005969870562821285</v>
+        <v>0.00966022489828766</v>
       </c>
       <c r="E32" t="n">
-        <v>0.009683902865112065</v>
+        <v>0.002916737586166962</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06569386935265947</v>
+        <v>2.220580141265469e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.003679074268362531</v>
+        <v>2.220580141265469e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0120736176353063</v>
+        <v>0.000507232620563312</v>
       </c>
       <c r="I32" t="n">
-        <v>0.892112417170097</v>
+        <v>0.9787509340587289</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1765,32 +1765,32 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44961.fa</t>
+          <t>even_MAG-GUT43628.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001423401132025653</v>
+        <v>0.03750198072636737</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9891030944415797</v>
+        <v>0.9521724327474227</v>
       </c>
       <c r="D33" t="n">
-        <v>0.009248014602167062</v>
+        <v>0.006441213118168207</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0001027939640368886</v>
+        <v>0.002687918126172318</v>
       </c>
       <c r="F33" t="n">
-        <v>2.21997598758217e-14</v>
+        <v>2.220217043164666e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>1.145213195649303e-06</v>
+        <v>2.220217043164666e-14</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0001215506469727589</v>
+        <v>0.001196455281824822</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9891030944415797</v>
+        <v>0.9521724327474227</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1806,32 +1806,32 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT450.fa</t>
+          <t>even_MAG-GUT43934.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.004339263903036265</v>
+        <v>0.007863259721860798</v>
       </c>
       <c r="C34" t="n">
-        <v>0.974519341819616</v>
+        <v>0.9736489940724539</v>
       </c>
       <c r="D34" t="n">
-        <v>0.006080506661379839</v>
+        <v>0.009642565654039091</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004794120796802616</v>
+        <v>0.0055630437071788</v>
       </c>
       <c r="F34" t="n">
-        <v>2.387026006512718e-14</v>
+        <v>2.220885517533696e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>1.235291532211474e-06</v>
+        <v>2.220885517533696e-14</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01026553152760931</v>
+        <v>0.00328213684442308</v>
       </c>
       <c r="I34" t="n">
-        <v>0.974519341819616</v>
+        <v>0.9736489940724539</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1847,32 +1847,32 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT452.fa</t>
+          <t>even_MAG-GUT444.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.002438758285389031</v>
+        <v>0.004235596894765629</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9723981299087598</v>
+        <v>0.9706392272088408</v>
       </c>
       <c r="D35" t="n">
-        <v>0.005730571920886912</v>
+        <v>0.01689763169001502</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01135107155011256</v>
+        <v>0.006707906636189712</v>
       </c>
       <c r="F35" t="n">
-        <v>2.289107066931592e-14</v>
+        <v>2.220646815485119e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>1.336914812054218e-06</v>
+        <v>2.220646815485119e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0.008080131420016666</v>
+        <v>0.00151963757014454</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9723981299087598</v>
+        <v>0.9706392272088408</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1888,32 +1888,32 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT453.fa</t>
+          <t>even_MAG-GUT445.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008894278638980511</v>
+        <v>0.004937584646107146</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9193682423396359</v>
+        <v>0.974960465069928</v>
       </c>
       <c r="D36" t="n">
-        <v>0.006628337043574494</v>
+        <v>0.0166944298339736</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00808413779395584</v>
+        <v>0.002662266016253474</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03887652321609845</v>
+        <v>2.22044970874468e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>0.002952545874900439</v>
+        <v>2.22044970874468e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01519593509285433</v>
+        <v>0.0007452544336933982</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9193682423396359</v>
+        <v>0.974960465069928</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1929,32 +1929,32 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT456.fa</t>
+          <t>even_MAG-GUT44512.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.003115451993112205</v>
+        <v>0.000514116618906574</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9320925366358533</v>
+        <v>0.9923877699361875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.005496202670862615</v>
+        <v>0.005603029293961403</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01840221901707859</v>
+        <v>0.0007706473595788592</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0187542171408982</v>
+        <v>2.220116024620648e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001695131107313563</v>
+        <v>2.220116024620648e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02044424143488154</v>
+        <v>0.0007244367913211812</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9320925366358533</v>
+        <v>0.9923877699361875</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1970,32 +1970,32 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT457.fa</t>
+          <t>even_MAG-GUT446.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.001183510941264998</v>
+        <v>0.02317364186442697</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9615349225645271</v>
+        <v>0.9627095946604595</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005017251288117549</v>
+        <v>0.009416973580126992</v>
       </c>
       <c r="E38" t="n">
-        <v>0.007513974701765249</v>
+        <v>0.003823093973823173</v>
       </c>
       <c r="F38" t="n">
-        <v>2.220004410463687e-14</v>
+        <v>2.220705162475667e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>1.611489626702143e-06</v>
+        <v>2.220705162475667e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02474872901467633</v>
+        <v>0.0008766959211190774</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9615349225645271</v>
+        <v>0.9627095946604595</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2011,32 +2011,32 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4577.fa</t>
+          <t>even_MAG-GUT44736.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>9.826819667625196e-05</v>
+        <v>0.008791876957370657</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9946654859874404</v>
+        <v>0.9742601173637336</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003893622603605017</v>
+        <v>0.01648949277869375</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0003709570897441484</v>
+        <v>0.0003463659480781756</v>
       </c>
       <c r="F39" t="n">
-        <v>2.220112746874381e-14</v>
+        <v>2.220625161163728e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>6.079646185088553e-07</v>
+        <v>2.220625161163728e-14</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0009710581578934488</v>
+        <v>0.0001121469520793162</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9946654859874404</v>
+        <v>0.9742601173637336</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2052,32 +2052,32 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46159.fa</t>
+          <t>even_MAG-GUT44961.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0004302214836241379</v>
+        <v>0.01154546008377469</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9834456498574057</v>
+        <v>0.9676092128274362</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01569443693782384</v>
+        <v>0.0206840192042738</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0003851054563721883</v>
+        <v>0.0001542379897169457</v>
       </c>
       <c r="F40" t="n">
-        <v>2.219712396068821e-14</v>
+        <v>2.220885156632885e-14</v>
       </c>
       <c r="G40" t="n">
-        <v>7.492218768353522e-06</v>
+        <v>2.220885156632885e-14</v>
       </c>
       <c r="H40" t="n">
-        <v>3.709404598352105e-05</v>
+        <v>7.069894753934433e-06</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9834456498574057</v>
+        <v>0.9676092128274362</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2093,32 +2093,32 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT462.fa</t>
+          <t>even_MAG-GUT450.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.006261159748039366</v>
+        <v>0.01485931211373269</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9437187595915246</v>
+        <v>0.9661841356819895</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006053339370262039</v>
+        <v>0.01535756109734622</v>
       </c>
       <c r="E41" t="n">
-        <v>0.005381157664808062</v>
+        <v>0.002644868178724436</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02577696222087431</v>
+        <v>2.221023097703064e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.002534465930595023</v>
+        <v>2.221023097703064e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01027415547389644</v>
+        <v>0.0009541229281628278</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9437187595915246</v>
+        <v>0.9661841356819895</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2134,32 +2134,32 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT463.fa</t>
+          <t>even_MAG-GUT452.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002103900097647752</v>
+        <v>0.006718371821278875</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9724908324437205</v>
+        <v>0.970609752719942</v>
       </c>
       <c r="D42" t="n">
-        <v>0.005746288645594789</v>
+        <v>0.01454711751009628</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004560432183547732</v>
+        <v>0.006752319869495938</v>
       </c>
       <c r="F42" t="n">
-        <v>2.220249873653439e-14</v>
+        <v>2.220866955055309e-14</v>
       </c>
       <c r="G42" t="n">
-        <v>1.579882783170798e-06</v>
+        <v>2.220866955055309e-14</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01509696674668389</v>
+        <v>0.001372438079142505</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9724908324437205</v>
+        <v>0.970609752719942</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2175,32 +2175,32 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46486.fa</t>
+          <t>even_MAG-GUT453.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007105571460598121</v>
+        <v>0.007496546760620593</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9365875291104492</v>
+        <v>0.9707259735007608</v>
       </c>
       <c r="D43" t="n">
-        <v>0.006633394047607983</v>
+        <v>0.01522613414239145</v>
       </c>
       <c r="E43" t="n">
-        <v>0.009534849487475556</v>
+        <v>0.004987983670592229</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03133926987086517</v>
+        <v>2.220843386228818e-14</v>
       </c>
       <c r="G43" t="n">
-        <v>0.002829739058179249</v>
+        <v>2.220843386228818e-14</v>
       </c>
       <c r="H43" t="n">
-        <v>0.005969646964824823</v>
+        <v>0.001563361925590536</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9365875291104492</v>
+        <v>0.9707259735007608</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2216,32 +2216,32 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT465.fa</t>
+          <t>even_MAG-GUT456.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.004644641527271707</v>
+        <v>0.006656051087550356</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8795501339489363</v>
+        <v>0.9635913352991078</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007383636627931006</v>
+        <v>0.01108972188150686</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02040730976377951</v>
+        <v>0.01312813526206768</v>
       </c>
       <c r="F44" t="n">
-        <v>0.05127649057162607</v>
+        <v>2.221521015862957e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00309813267286011</v>
+        <v>2.221521015862957e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03363965488759524</v>
+        <v>0.005534756469722848</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8795501339489363</v>
+        <v>0.9635913352991078</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2257,32 +2257,32 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT467.fa</t>
+          <t>even_MAG-GUT457.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001337978645443712</v>
+        <v>0.003569635315055248</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9505012355899521</v>
+        <v>0.9722974593900929</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006819684190152261</v>
+        <v>0.01605159370180922</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02396336078186617</v>
+        <v>0.005597271986942212</v>
       </c>
       <c r="F45" t="n">
-        <v>2.402270681313561e-14</v>
+        <v>2.220612649582461e-14</v>
       </c>
       <c r="G45" t="n">
-        <v>2.506318659452076e-06</v>
+        <v>2.220612649582461e-14</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01737523447390223</v>
+        <v>0.002484039606055841</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9505012355899521</v>
+        <v>0.9722974593900929</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2298,32 +2298,32 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46719.fa</t>
+          <t>even_MAG-GUT4577.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0001479016421476284</v>
+        <v>0.001009943003925039</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9823097751600568</v>
+        <v>0.9866651556913818</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01692435750317743</v>
+        <v>0.0117489937082676</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0005458593931716526</v>
+        <v>0.0004440344044685581</v>
       </c>
       <c r="F46" t="n">
-        <v>2.219556878735511e-14</v>
+        <v>2.219792347185355e-14</v>
       </c>
       <c r="G46" t="n">
-        <v>5.520225843826696e-06</v>
+        <v>2.219792347185355e-14</v>
       </c>
       <c r="H46" t="n">
-        <v>6.658607558049954e-05</v>
+        <v>0.0001318731919125329</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9823097751600568</v>
+        <v>0.9866651556913818</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2339,32 +2339,32 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46760.fa</t>
+          <t>even_MAG-GUT45829.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0005116651969399619</v>
+        <v>0.003454375657618317</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9917864069468803</v>
+        <v>0.9827174926680513</v>
       </c>
       <c r="D47" t="n">
-        <v>0.004425118632003491</v>
+        <v>0.01059737796426156</v>
       </c>
       <c r="E47" t="n">
-        <v>0.001387460897008859</v>
+        <v>0.001930636126473989</v>
       </c>
       <c r="F47" t="n">
-        <v>2.22027231954074e-14</v>
+        <v>2.220385388277677e-14</v>
       </c>
       <c r="G47" t="n">
-        <v>1.089673013972122e-06</v>
+        <v>2.220385388277677e-14</v>
       </c>
       <c r="H47" t="n">
-        <v>0.001888258654131318</v>
+        <v>0.001300117583550395</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9917864069468803</v>
+        <v>0.9827174926680513</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2380,32 +2380,32 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT468.fa</t>
+          <t>even_MAG-GUT459.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0004300785580385813</v>
+        <v>0.003740207310862245</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9823903205760924</v>
+        <v>0.9755265082264917</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004825715804612094</v>
+        <v>0.01138449643612197</v>
       </c>
       <c r="E48" t="n">
-        <v>0.007620406247438773</v>
+        <v>0.007144841587454284</v>
       </c>
       <c r="F48" t="n">
-        <v>2.220404863280381e-14</v>
+        <v>2.220766978834663e-14</v>
       </c>
       <c r="G48" t="n">
-        <v>1.059952843229372e-06</v>
+        <v>2.220766978834663e-14</v>
       </c>
       <c r="H48" t="n">
-        <v>0.004732418860952769</v>
+        <v>0.002203946439025323</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9823903205760924</v>
+        <v>0.9755265082264917</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2421,32 +2421,32 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT469.fa</t>
+          <t>even_MAG-GUT46159.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0006568483429382769</v>
+        <v>0.004963738867010467</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9873885907752841</v>
+        <v>0.9720606511683862</v>
       </c>
       <c r="D49" t="n">
-        <v>0.003534259544222525</v>
+        <v>0.02268212158969678</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00165395098070659</v>
+        <v>0.0002861458271377662</v>
       </c>
       <c r="F49" t="n">
-        <v>2.220326870649484e-14</v>
+        <v>2.220000094337591e-14</v>
       </c>
       <c r="G49" t="n">
-        <v>6.657284481393491e-07</v>
+        <v>2.220000094337591e-14</v>
       </c>
       <c r="H49" t="n">
-        <v>0.006765684628378355</v>
+        <v>7.342547724530947e-06</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9873885907752841</v>
+        <v>0.9720606511683862</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2462,32 +2462,32 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT470.fa</t>
+          <t>even_MAG-GUT462.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.002109824319789969</v>
+        <v>0.006743115243048219</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9751540961645919</v>
+        <v>0.9717895880780486</v>
       </c>
       <c r="D50" t="n">
-        <v>0.006008372789232538</v>
+        <v>0.0178580934181767</v>
       </c>
       <c r="E50" t="n">
-        <v>0.008633303527196308</v>
+        <v>0.003149105837944836</v>
       </c>
       <c r="F50" t="n">
-        <v>2.220969062480287e-14</v>
+        <v>2.220494450908711e-14</v>
       </c>
       <c r="G50" t="n">
-        <v>1.543362995525596e-06</v>
+        <v>2.220494450908711e-14</v>
       </c>
       <c r="H50" t="n">
-        <v>0.008092859836171419</v>
+        <v>0.0004600974227373587</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9751540961645919</v>
+        <v>0.9717895880780486</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2503,32 +2503,32 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT471.fa</t>
+          <t>even_MAG-GUT463.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.002774417135867561</v>
+        <v>0.005594587380218234</v>
       </c>
       <c r="C51" t="n">
-        <v>0.978278868645434</v>
+        <v>0.9714895255334527</v>
       </c>
       <c r="D51" t="n">
-        <v>0.006338332445349996</v>
+        <v>0.01740648189858789</v>
       </c>
       <c r="E51" t="n">
-        <v>0.00534070852581094</v>
+        <v>0.003960805704291244</v>
       </c>
       <c r="F51" t="n">
-        <v>2.343785231117092e-14</v>
+        <v>2.220709306831512e-14</v>
       </c>
       <c r="G51" t="n">
-        <v>1.021739489606494e-06</v>
+        <v>2.220709306831512e-14</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00726665150802461</v>
+        <v>0.001548599483405538</v>
       </c>
       <c r="I51" t="n">
-        <v>0.978278868645434</v>
+        <v>0.9714895255334527</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2544,32 +2544,32 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47464.fa</t>
+          <t>even_MAG-GUT464.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.003311900049416022</v>
+        <v>0.01164684898638547</v>
       </c>
       <c r="C52" t="n">
-        <v>0.966137906584178</v>
+        <v>0.9751167686888889</v>
       </c>
       <c r="D52" t="n">
-        <v>0.004157553429600449</v>
+        <v>0.01029254955377472</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004300140696752325</v>
+        <v>0.002202511759173436</v>
       </c>
       <c r="F52" t="n">
-        <v>2.220175056435719e-14</v>
+        <v>2.220785433115749e-14</v>
       </c>
       <c r="G52" t="n">
-        <v>2.099888632946118e-06</v>
+        <v>2.220785433115749e-14</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02209039935139801</v>
+        <v>0.0007413210117331743</v>
       </c>
       <c r="I52" t="n">
-        <v>0.966137906584178</v>
+        <v>0.9751167686888889</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2585,32 +2585,32 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47585.fa</t>
+          <t>even_MAG-GUT46486.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0001766848711488451</v>
+        <v>0.01890550412493723</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9946367562949565</v>
+        <v>0.9649560806725906</v>
       </c>
       <c r="D53" t="n">
-        <v>0.004273025890542029</v>
+        <v>0.01160315864338694</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0003326084607990049</v>
+        <v>0.003908975837289843</v>
       </c>
       <c r="F53" t="n">
-        <v>2.220058168126512e-14</v>
+        <v>2.220805574694284e-14</v>
       </c>
       <c r="G53" t="n">
-        <v>9.414035759802531e-07</v>
+        <v>2.220805574694284e-14</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0005799830789554684</v>
+        <v>0.0006262807217509187</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9946367562949565</v>
+        <v>0.9649560806725906</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2626,32 +2626,32 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48579.fa</t>
+          <t>even_MAG-GUT46493.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.007264419172025385</v>
+        <v>0.003020865019986809</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8736948861704861</v>
+        <v>0.9746726363777047</v>
       </c>
       <c r="D54" t="n">
-        <v>0.006074208103523622</v>
+        <v>0.0131085801983329</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01428264258528802</v>
+        <v>0.006946950829868767</v>
       </c>
       <c r="F54" t="n">
-        <v>0.07079530881709732</v>
+        <v>2.220691836181452e-14</v>
       </c>
       <c r="G54" t="n">
-        <v>0.003599342786053812</v>
+        <v>2.220691836181452e-14</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02428919236552569</v>
+        <v>0.002250967574062407</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8736948861704861</v>
+        <v>0.9746726363777047</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2667,32 +2667,32 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55663.fa</t>
+          <t>even_MAG-GUT465.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8.773740782621536e-05</v>
+        <v>0.006686348004127163</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9829175434977283</v>
+        <v>0.956813266430608</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01665306155449302</v>
+        <v>0.01580196164143123</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0002049050742331323</v>
+        <v>0.01250995848912276</v>
       </c>
       <c r="F55" t="n">
-        <v>2.219535760336445e-14</v>
+        <v>2.221655107197073e-14</v>
       </c>
       <c r="G55" t="n">
-        <v>5.031844132419442e-06</v>
+        <v>2.221655107197073e-14</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0001317206215647702</v>
+        <v>0.008188465434666389</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9829175434977283</v>
+        <v>0.956813266430608</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2708,32 +2708,32 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55688.fa</t>
+          <t>even_MAG-GUT467.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0001222544656600057</v>
+        <v>0.002382892428695084</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9848812553028248</v>
+        <v>0.969289797201118</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01466613404789695</v>
+        <v>0.01003678974924836</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0002859582078200022</v>
+        <v>0.01271540932644409</v>
       </c>
       <c r="F56" t="n">
-        <v>2.219647586031795e-14</v>
+        <v>2.221047617042302e-14</v>
       </c>
       <c r="G56" t="n">
-        <v>5.979595542876346e-06</v>
+        <v>2.221047617042302e-14</v>
       </c>
       <c r="H56" t="n">
-        <v>3.841838023296363e-05</v>
+        <v>0.005575111294450056</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9848812553028248</v>
+        <v>0.969289797201118</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2749,32 +2749,32 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56059.fa</t>
+          <t>even_MAG-GUT46760.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.894583236499944e-05</v>
+        <v>0.003016762172056201</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9919192391492798</v>
+        <v>0.985687756645753</v>
       </c>
       <c r="D57" t="n">
-        <v>0.006161048613947505</v>
+        <v>0.009011263827597444</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0005139593269733358</v>
+        <v>0.001711293743955358</v>
       </c>
       <c r="F57" t="n">
-        <v>2.220103012217393e-14</v>
+        <v>2.220297728863684e-14</v>
       </c>
       <c r="G57" t="n">
-        <v>1.31549743045138e-06</v>
+        <v>2.220297728863684e-14</v>
       </c>
       <c r="H57" t="n">
-        <v>0.001365491579981655</v>
+        <v>0.0005729236105935152</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9919192391492798</v>
+        <v>0.985687756645753</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2790,32 +2790,32 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59472.fa</t>
+          <t>even_MAG-GUT468.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0001273229341225875</v>
+        <v>0.001613704318182946</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9803737050374439</v>
+        <v>0.9816974493116664</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0192670591290559</v>
+        <v>0.01014113609318926</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0001148896345179169</v>
+        <v>0.005294855903739328</v>
       </c>
       <c r="F58" t="n">
-        <v>2.219460781947933e-14</v>
+        <v>2.220463278543464e-14</v>
       </c>
       <c r="G58" t="n">
-        <v>8.216995161913439e-06</v>
+        <v>2.220463278543464e-14</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0001088062696753819</v>
+        <v>0.001252854373177682</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9803737050374439</v>
+        <v>0.9816974493116664</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2831,32 +2831,32 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62023.fa</t>
+          <t>even_MAG-GUT469.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9.534705461868156e-05</v>
+        <v>0.004223743305437892</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9807867947012743</v>
+        <v>0.9784784908444301</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01878851809269872</v>
+        <v>0.01438849833731659</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0002737033969779844</v>
+        <v>0.002086961350718555</v>
       </c>
       <c r="F59" t="n">
-        <v>2.219480872363217e-14</v>
+        <v>2.220323338519218e-14</v>
       </c>
       <c r="G59" t="n">
-        <v>6.473667362844886e-06</v>
+        <v>2.220323338519218e-14</v>
       </c>
       <c r="H59" t="n">
-        <v>4.916308704547789e-05</v>
+        <v>0.000822306162052238</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9807867947012743</v>
+        <v>0.9784784908444301</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2872,32 +2872,32 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64457.fa</t>
+          <t>even_MAG-GUT470.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.005777308550843078</v>
+        <v>0.003399112281445727</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9323683537186709</v>
+        <v>0.9778870427238635</v>
       </c>
       <c r="D60" t="n">
-        <v>0.006417712484499743</v>
+        <v>0.01107448504672346</v>
       </c>
       <c r="E60" t="n">
-        <v>0.009608073215638448</v>
+        <v>0.005584516735774425</v>
       </c>
       <c r="F60" t="n">
-        <v>0.03272672559587756</v>
+        <v>2.220686396616952e-14</v>
       </c>
       <c r="G60" t="n">
-        <v>0.002827667201304566</v>
+        <v>2.220686396616952e-14</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01027415923316585</v>
+        <v>0.002054843212148454</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9323683537186709</v>
+        <v>0.9778870427238635</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2913,32 +2913,32 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66991.fa</t>
+          <t>even_MAG-GUT471.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.000418832356614044</v>
+        <v>0.006473860012444</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9860350368944233</v>
+        <v>0.9740800307773844</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01309748408895272</v>
+        <v>0.01578614514419001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0002587903420871694</v>
+        <v>0.003041126970288827</v>
       </c>
       <c r="F61" t="n">
-        <v>2.21973855033228e-14</v>
+        <v>2.22053502334337e-14</v>
       </c>
       <c r="G61" t="n">
-        <v>1.272953461695242e-05</v>
+        <v>2.22053502334337e-14</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0001771267832838506</v>
+        <v>0.0006188370956483055</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9860350368944233</v>
+        <v>0.9740800307773844</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2954,32 +2954,32 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67012.fa</t>
+          <t>even_MAG-GUT47464.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01990923596880308</v>
+        <v>0.005591452678824455</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8064512153232744</v>
+        <v>0.9750492670441322</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006305340939070142</v>
+        <v>0.01350672402007692</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00992221784187493</v>
+        <v>0.003431521943601998</v>
       </c>
       <c r="F62" t="n">
-        <v>0.127766382001604</v>
+        <v>2.220695694698982e-14</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00384740139556821</v>
+        <v>2.220695694698982e-14</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02579820652980514</v>
+        <v>0.002421034313320053</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8064512153232744</v>
+        <v>0.9750492670441322</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2995,32 +2995,32 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67120.fa</t>
+          <t>even_MAG-GUT47585.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0001572235960097866</v>
+        <v>0.0009227737063937537</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9822865551542281</v>
+        <v>0.9906186070437973</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01728188164320295</v>
+        <v>0.007848482318735786</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0001689390600572168</v>
+        <v>0.0004439959078931713</v>
       </c>
       <c r="F63" t="n">
-        <v>2.219531643117656e-14</v>
+        <v>2.219975367682236e-14</v>
       </c>
       <c r="G63" t="n">
-        <v>5.988589261478179e-06</v>
+        <v>2.219975367682236e-14</v>
       </c>
       <c r="H63" t="n">
-        <v>9.941195721839091e-05</v>
+        <v>0.0001661410231354915</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9822865551542281</v>
+        <v>0.9906186070437973</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3036,32 +3036,32 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67723.fa</t>
+          <t>even_MAG-GUT47777.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0001193911010245356</v>
+        <v>0.0006087215283804698</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9927288396911819</v>
+        <v>0.9872872484075764</v>
       </c>
       <c r="D64" t="n">
-        <v>0.006416396625288303</v>
+        <v>0.01192652294247753</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0006260554863444934</v>
+        <v>0.000140954680183137</v>
       </c>
       <c r="F64" t="n">
-        <v>2.219965119567086e-14</v>
+        <v>2.219716475132686e-14</v>
       </c>
       <c r="G64" t="n">
-        <v>2.855394417781544e-06</v>
+        <v>2.219716475132686e-14</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0001064617017210703</v>
+        <v>3.655244133817597e-05</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9927288396911819</v>
+        <v>0.9872872484075764</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3077,32 +3077,32 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67770.fa</t>
+          <t>even_MAG-GUT48579.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0001534796682514957</v>
+        <v>0.01243473429845851</v>
       </c>
       <c r="C65" t="n">
-        <v>0.978581007481052</v>
+        <v>0.9653549535870034</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02100882239932796</v>
+        <v>0.009206900684762128</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0002202227864229666</v>
+        <v>0.009090724994929904</v>
       </c>
       <c r="F65" t="n">
-        <v>2.219495604919313e-14</v>
+        <v>2.221069399356855e-14</v>
       </c>
       <c r="G65" t="n">
-        <v>8.219949974192176e-06</v>
+        <v>2.221069399356855e-14</v>
       </c>
       <c r="H65" t="n">
-        <v>2.824771494891378e-05</v>
+        <v>0.003912686434801716</v>
       </c>
       <c r="I65" t="n">
-        <v>0.978581007481052</v>
+        <v>0.9653549535870034</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3118,32 +3118,32 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67779.fa</t>
+          <t>even_MAG-GUT54955.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0001310107973537459</v>
+        <v>0.001155681182330151</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9836420311264928</v>
+        <v>0.9907389555053761</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01602787245954905</v>
+        <v>0.007879756926346326</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0001420587151406029</v>
+        <v>0.0001802210705768187</v>
       </c>
       <c r="F66" t="n">
-        <v>2.219582091121058e-14</v>
+        <v>2.219972520184758e-14</v>
       </c>
       <c r="G66" t="n">
-        <v>8.475659621267124e-06</v>
+        <v>2.219972520184758e-14</v>
       </c>
       <c r="H66" t="n">
-        <v>4.855124182016756e-05</v>
+        <v>4.538531532624547e-05</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9836420311264928</v>
+        <v>0.9907389555053761</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3159,32 +3159,32 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67830.fa</t>
+          <t>even_MAG-GUT55688.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0003471237860593254</v>
+        <v>0.003317941838495975</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9862544899919192</v>
+        <v>0.9785088669482183</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01300871238132423</v>
+        <v>0.01788089088433265</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0003263738312893403</v>
+        <v>0.0002844847859948088</v>
       </c>
       <c r="F67" t="n">
-        <v>2.21971229595736e-14</v>
+        <v>2.219922142319691e-14</v>
       </c>
       <c r="G67" t="n">
-        <v>2.564915511156815e-06</v>
+        <v>2.219922142319691e-14</v>
       </c>
       <c r="H67" t="n">
-        <v>6.073509387448775e-05</v>
+        <v>7.815542913985182e-06</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9862544899919192</v>
+        <v>0.9785088669482183</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3200,32 +3200,32 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67839.fa</t>
+          <t>even_MAG-GUT55792.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0001621719067720723</v>
+        <v>0.0009371303559849188</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9858911047668496</v>
+        <v>0.9901503752811059</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01333215947982249</v>
+        <v>0.008411821807338873</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0005384589004093233</v>
+        <v>0.0003935492226527044</v>
       </c>
       <c r="F68" t="n">
-        <v>2.219741628972976e-14</v>
+        <v>2.219944286691749e-14</v>
       </c>
       <c r="G68" t="n">
-        <v>2.901456539627313e-06</v>
+        <v>2.219944286691749e-14</v>
       </c>
       <c r="H68" t="n">
-        <v>7.320348958456971e-05</v>
+        <v>0.0001071233328731091</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9858911047668496</v>
+        <v>0.9901503752811059</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3241,32 +3241,32 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67975.fa</t>
+          <t>even_MAG-GUT56059.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.00392477845588462</v>
+        <v>0.0002144851497627287</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9582508617540361</v>
+        <v>0.9862370653883353</v>
       </c>
       <c r="D69" t="n">
-        <v>0.005491632227797888</v>
+        <v>0.01247566854306575</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004830537741413039</v>
+        <v>0.0006631000882452691</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01395255484974695</v>
+        <v>2.219717593629827e-14</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001551059700491301</v>
+        <v>2.219717593629827e-14</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01199857527063026</v>
+        <v>0.0004096808305465214</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9582508617540361</v>
+        <v>0.9862370653883353</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3282,32 +3282,32 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67977.fa</t>
+          <t>even_MAG-GUT59472.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>7.972262563078463e-05</v>
+        <v>0.002664975412541334</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9857677195174952</v>
+        <v>0.9653984412669924</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01368955011691123</v>
+        <v>0.03175881834933448</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0004070713432863205</v>
+        <v>0.0001599915438922675</v>
       </c>
       <c r="F70" t="n">
-        <v>2.219673927137382e-14</v>
+        <v>2.219196522635819e-14</v>
       </c>
       <c r="G70" t="n">
-        <v>6.38930919714444e-06</v>
+        <v>2.219196522635819e-14</v>
       </c>
       <c r="H70" t="n">
-        <v>4.954708745700444e-05</v>
+        <v>1.777342719493499e-05</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9857677195174952</v>
+        <v>0.9653984412669924</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3323,32 +3323,32 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68007.fa</t>
+          <t>even_MAG-GUT62023.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3.073297349491779e-05</v>
+        <v>0.001052318779476572</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9847043811597423</v>
+        <v>0.9648906135592525</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01503297086972809</v>
+        <v>0.03382755554334466</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0001570623631221335</v>
+        <v>0.0002235478161840014</v>
       </c>
       <c r="F71" t="n">
-        <v>2.219620527121385e-14</v>
+        <v>2.21888520959629e-14</v>
       </c>
       <c r="G71" t="n">
-        <v>4.402886909531904e-06</v>
+        <v>2.21888520959629e-14</v>
       </c>
       <c r="H71" t="n">
-        <v>7.04497469806735e-05</v>
+        <v>5.964301697705115e-06</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9847043811597423</v>
+        <v>0.9648906135592525</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3364,32 +3364,32 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68023.fa</t>
+          <t>even_MAG-GUT64457.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0001978258702390037</v>
+        <v>0.005636043531153753</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9814097989611844</v>
+        <v>0.977691013657402</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01795023836693976</v>
+        <v>0.008754146683355314</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0004136134873628309</v>
+        <v>0.006602674330644692</v>
       </c>
       <c r="F72" t="n">
-        <v>2.219586356891291e-14</v>
+        <v>2.2206576494589e-14</v>
       </c>
       <c r="G72" t="n">
-        <v>3.282226995144426e-06</v>
+        <v>2.2206576494589e-14</v>
       </c>
       <c r="H72" t="n">
-        <v>2.524108725660103e-05</v>
+        <v>0.001316121797399877</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9814097989611844</v>
+        <v>0.977691013657402</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3405,32 +3405,32 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68157.fa</t>
+          <t>even_MAG-GUT66991.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0001012903956606731</v>
+        <v>0.01000782040518529</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9889506567907478</v>
+        <v>0.973680609093478</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01071410591043366</v>
+        <v>0.01597064378743514</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0001963747226366296</v>
+        <v>0.0002780586142360091</v>
       </c>
       <c r="F73" t="n">
-        <v>2.219768930078309e-14</v>
+        <v>2.220674659661979e-14</v>
       </c>
       <c r="G73" t="n">
-        <v>6.998704878855582e-06</v>
+        <v>2.220674659661979e-14</v>
       </c>
       <c r="H73" t="n">
-        <v>3.057347561990295e-05</v>
+        <v>6.286809962119901e-05</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9889506567907478</v>
+        <v>0.973680609093478</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3446,32 +3446,32 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68189.fa</t>
+          <t>even_MAG-GUT67012.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.006266872378594169</v>
+        <v>0.03739905782886784</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9189420565987992</v>
+        <v>0.9422057229752484</v>
       </c>
       <c r="D74" t="n">
-        <v>0.005932946536059933</v>
+        <v>0.009522312203406722</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01333047373999602</v>
+        <v>0.006126334651555281</v>
       </c>
       <c r="F74" t="n">
-        <v>0.03948808405434405</v>
+        <v>2.221524658315761e-14</v>
       </c>
       <c r="G74" t="n">
-        <v>0.003003480897542197</v>
+        <v>2.221524658315761e-14</v>
       </c>
       <c r="H74" t="n">
-        <v>0.01303608579466435</v>
+        <v>0.004746572340877257</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9189420565987992</v>
+        <v>0.9422057229752484</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3487,32 +3487,32 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68197.fa</t>
+          <t>even_MAG-GUT67029.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0001363779433307735</v>
+        <v>0.01152294676557741</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9814325001668609</v>
+        <v>0.9608996780388994</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01792989174227659</v>
+        <v>0.01333042345144448</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0004058104852646172</v>
+        <v>0.009144555981094041</v>
       </c>
       <c r="F75" t="n">
-        <v>2.219541155799462e-14</v>
+        <v>2.221550374811843e-14</v>
       </c>
       <c r="G75" t="n">
-        <v>3.841866844052473e-06</v>
+        <v>2.221550374811843e-14</v>
       </c>
       <c r="H75" t="n">
-        <v>9.15777954007135e-05</v>
+        <v>0.005102395762940187</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9814325001668609</v>
+        <v>0.9608996780388994</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3528,32 +3528,32 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68475.fa</t>
+          <t>even_MAG-GUT67120.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.000137764283662383</v>
+        <v>0.002172137206490451</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9856704010498191</v>
+        <v>0.9741515955174421</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01377434063470038</v>
+        <v>0.02341135810007873</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0003453030196489255</v>
+        <v>0.0002362178768692876</v>
       </c>
       <c r="F76" t="n">
-        <v>2.219651194421271e-14</v>
+        <v>2.219459498968476e-14</v>
       </c>
       <c r="G76" t="n">
-        <v>1.033373335409291e-05</v>
+        <v>2.219459498968476e-14</v>
       </c>
       <c r="H76" t="n">
-        <v>6.185727879301405e-05</v>
+        <v>2.869129907490078e-05</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9856704010498191</v>
+        <v>0.9741515955174421</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3569,32 +3569,32 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68642.fa</t>
+          <t>even_MAG-GUT67723.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.003537275961601095</v>
+        <v>0.004052842471942491</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9715513604080998</v>
+        <v>0.9877832393024177</v>
       </c>
       <c r="D77" t="n">
-        <v>0.005574769905524308</v>
+        <v>0.007534183934154203</v>
       </c>
       <c r="E77" t="n">
-        <v>0.009430939487602498</v>
+        <v>0.0005519618334030006</v>
       </c>
       <c r="F77" t="n">
-        <v>2.612093910812344e-14</v>
+        <v>2.220315767880507e-14</v>
       </c>
       <c r="G77" t="n">
-        <v>1.242220311906567e-06</v>
+        <v>2.220315767880507e-14</v>
       </c>
       <c r="H77" t="n">
-        <v>0.009904412016834464</v>
+        <v>7.777245803820345e-05</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9715513604080998</v>
+        <v>0.9877832393024177</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3610,32 +3610,32 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68659.fa</t>
+          <t>even_MAG-GUT67770.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>9.821621276412854e-05</v>
+        <v>0.001875803830034284</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9808834951288572</v>
+        <v>0.9670804951750382</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01855875924953306</v>
+        <v>0.0308355822040135</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0004083768959040459</v>
+        <v>0.0002052185459208182</v>
       </c>
       <c r="F78" t="n">
-        <v>2.219497133678176e-14</v>
+        <v>2.219156992677886e-14</v>
       </c>
       <c r="G78" t="n">
-        <v>4.992117712248784e-06</v>
+        <v>2.219156992677886e-14</v>
       </c>
       <c r="H78" t="n">
-        <v>4.616039520708529e-05</v>
+        <v>2.900244948846003e-06</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9808834951288572</v>
+        <v>0.9670804951750382</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3651,32 +3651,32 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68697.fa</t>
+          <t>even_MAG-GUT67779.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0003776993976451794</v>
+        <v>0.001502581003975973</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9884361667700439</v>
+        <v>0.9718056258195648</v>
       </c>
       <c r="D79" t="n">
-        <v>0.005278171945004216</v>
+        <v>0.02648532749154583</v>
       </c>
       <c r="E79" t="n">
-        <v>0.002538635308058054</v>
+        <v>0.0001988825020287511</v>
       </c>
       <c r="F79" t="n">
-        <v>2.220384121987662e-14</v>
+        <v>2.21921591831867e-14</v>
       </c>
       <c r="G79" t="n">
-        <v>9.120737507425345e-07</v>
+        <v>2.21921591831867e-14</v>
       </c>
       <c r="H79" t="n">
-        <v>0.003368414505475779</v>
+        <v>7.583182840458441e-06</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9884361667700439</v>
+        <v>0.9718056258195648</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3692,32 +3692,32 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68968.fa</t>
+          <t>even_MAG-GUT67830.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0006577806269958366</v>
+        <v>0.01144107428329218</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9921855435300837</v>
+        <v>0.9703793580565501</v>
       </c>
       <c r="D80" t="n">
-        <v>0.003390948105249157</v>
+        <v>0.0179084223606948</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0007968857488054191</v>
+        <v>0.0002607115486840899</v>
       </c>
       <c r="F80" t="n">
-        <v>2.220300894845564e-14</v>
+        <v>2.22087942153343e-14</v>
       </c>
       <c r="G80" t="n">
-        <v>1.027347022232464e-06</v>
+        <v>2.22087942153343e-14</v>
       </c>
       <c r="H80" t="n">
-        <v>0.002967814641821416</v>
+        <v>1.043375073446518e-05</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9921855435300837</v>
+        <v>0.9703793580565501</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3733,32 +3733,32 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69048.fa</t>
+          <t>even_MAG-GUT67839.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0001392144071049296</v>
+        <v>0.004053179211269745</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9751659691043734</v>
+        <v>0.9754120497151835</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0240074441119925</v>
+        <v>0.02000787851217687</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0006327144854241486</v>
+        <v>0.0005063850096759152</v>
       </c>
       <c r="F81" t="n">
-        <v>2.219375238535361e-14</v>
+        <v>2.219964306531382e-14</v>
       </c>
       <c r="G81" t="n">
-        <v>6.341430215884723e-06</v>
+        <v>2.219964306531382e-14</v>
       </c>
       <c r="H81" t="n">
-        <v>4.831646086687665e-05</v>
+        <v>2.050755164970071e-05</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9751659691043734</v>
+        <v>0.9754120497151835</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3774,32 +3774,32 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69117.fa</t>
+          <t>even_MAG-GUT67975.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.002388492907253072</v>
+        <v>0.004805050087781873</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9878446702426023</v>
+        <v>0.9758194375570253</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003450584922226781</v>
+        <v>0.01550804118839772</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003395184093109288</v>
+        <v>0.003099671807106053</v>
       </c>
       <c r="F82" t="n">
-        <v>2.220179969470346e-14</v>
+        <v>2.220448374529265e-14</v>
       </c>
       <c r="G82" t="n">
-        <v>5.867967709039472e-07</v>
+        <v>2.220448374529265e-14</v>
       </c>
       <c r="H82" t="n">
-        <v>0.002920481038015447</v>
+        <v>0.0007677993596447328</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9878446702426023</v>
+        <v>0.9758194375570253</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3815,32 +3815,32 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69121.fa</t>
+          <t>even_MAG-GUT67977.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.00150745794729525</v>
+        <v>0.005872289492764061</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9807834731585638</v>
+        <v>0.9771099497316227</v>
       </c>
       <c r="D83" t="n">
-        <v>0.004331221088788874</v>
+        <v>0.01663391555231362</v>
       </c>
       <c r="E83" t="n">
-        <v>0.002805868613213934</v>
+        <v>0.0003736363016380125</v>
       </c>
       <c r="F83" t="n">
-        <v>2.220254294326207e-14</v>
+        <v>2.220257956906581e-14</v>
       </c>
       <c r="G83" t="n">
-        <v>1.433497090121501e-06</v>
+        <v>2.220257956906581e-14</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01057054569502571</v>
+        <v>1.020892161733965e-05</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9807834731585638</v>
+        <v>0.9771099497316227</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3856,32 +3856,32 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69224.fa</t>
+          <t>even_MAG-GUT68007.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0018631046583268</v>
+        <v>0.0005428620178149059</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9517029377669809</v>
+        <v>0.976352334713766</v>
       </c>
       <c r="D84" t="n">
-        <v>0.00553469392823097</v>
+        <v>0.02291938045936441</v>
       </c>
       <c r="E84" t="n">
-        <v>0.02101651764250486</v>
+        <v>0.0001702136959058002</v>
       </c>
       <c r="F84" t="n">
-        <v>2.533597583461734e-14</v>
+        <v>2.219293212107175e-14</v>
       </c>
       <c r="G84" t="n">
-        <v>1.76287144352272e-06</v>
+        <v>2.219293212107175e-14</v>
       </c>
       <c r="H84" t="n">
-        <v>0.01988098313248745</v>
+        <v>1.520911310459775e-05</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9517029377669809</v>
+        <v>0.976352334713766</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3897,32 +3897,32 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69229.fa</t>
+          <t>even_MAG-GUT68023.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0140401067571176</v>
+        <v>0.001845366008080908</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9188756054674988</v>
+        <v>0.9615731603345031</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00697659613034953</v>
+        <v>0.03625031503654497</v>
       </c>
       <c r="E85" t="n">
-        <v>0.004547741768553677</v>
+        <v>0.000329595816914394</v>
       </c>
       <c r="F85" t="n">
-        <v>0.04044909068878451</v>
+        <v>2.219030919795355e-14</v>
       </c>
       <c r="G85" t="n">
-        <v>0.003087210576589703</v>
+        <v>2.219030919795355e-14</v>
       </c>
       <c r="H85" t="n">
-        <v>0.01202364861110628</v>
+        <v>1.56280391224599e-06</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9188756054674988</v>
+        <v>0.9615731603345031</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3938,32 +3938,32 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69434.fa</t>
+          <t>even_MAG-GUT68157.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.001069540422077897</v>
+        <v>0.002251602714346312</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9844293098524305</v>
+        <v>0.9830260458966947</v>
       </c>
       <c r="D86" t="n">
-        <v>0.004290102823873107</v>
+        <v>0.01451351732418392</v>
       </c>
       <c r="E86" t="n">
-        <v>0.005928991941641044</v>
+        <v>0.0002041734208325577</v>
       </c>
       <c r="F86" t="n">
-        <v>2.220314175047197e-14</v>
+        <v>2.219853475899415e-14</v>
       </c>
       <c r="G86" t="n">
-        <v>7.682901988146053e-07</v>
+        <v>2.219853475899415e-14</v>
       </c>
       <c r="H86" t="n">
-        <v>0.00428128666975642</v>
+        <v>4.660643898170523e-06</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9844293098524305</v>
+        <v>0.9830260458966947</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3979,32 +3979,32 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69447.fa</t>
+          <t>even_MAG-GUT68189.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.005450727777363802</v>
+        <v>0.008367844109645398</v>
       </c>
       <c r="C87" t="n">
-        <v>0.984807837350223</v>
+        <v>0.9718885010106684</v>
       </c>
       <c r="D87" t="n">
-        <v>0.005124850486265782</v>
+        <v>0.009595016407464508</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001744559580326528</v>
+        <v>0.00687941685511506</v>
       </c>
       <c r="F87" t="n">
-        <v>2.220152523466579e-14</v>
+        <v>2.22075136316274e-14</v>
       </c>
       <c r="G87" t="n">
-        <v>8.649425810433945e-07</v>
+        <v>2.22075136316274e-14</v>
       </c>
       <c r="H87" t="n">
-        <v>0.002871159863217568</v>
+        <v>0.003269221617062323</v>
       </c>
       <c r="I87" t="n">
-        <v>0.984807837350223</v>
+        <v>0.9718885010106684</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4020,32 +4020,32 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74324.fa</t>
+          <t>even_MAG-GUT68190.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>9.807538956258611e-05</v>
+        <v>0.01265883310815556</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9798114916475673</v>
+        <v>0.9625689251233904</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01992416002814864</v>
+        <v>0.02045147151610666</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0001151924018952608</v>
+        <v>0.003691006701070487</v>
       </c>
       <c r="F88" t="n">
-        <v>2.219470834662803e-14</v>
+        <v>2.221018349799369e-14</v>
       </c>
       <c r="G88" t="n">
-        <v>3.249711758104585e-06</v>
+        <v>2.221018349799369e-14</v>
       </c>
       <c r="H88" t="n">
-        <v>4.783082104590424e-05</v>
+        <v>0.000629763551232474</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9798114916475673</v>
+        <v>0.9625689251233904</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4061,32 +4061,32 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74347.fa</t>
+          <t>even_MAG-GUT68197.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.000113184325000454</v>
+        <v>0.002645577315504925</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9822867985249152</v>
+        <v>0.9728339872971979</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01736160757788763</v>
+        <v>0.02414134017081669</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0001545489887562581</v>
+        <v>0.0003585219509001277</v>
       </c>
       <c r="F89" t="n">
-        <v>2.219532588752541e-14</v>
+        <v>2.219575165622337e-14</v>
       </c>
       <c r="G89" t="n">
-        <v>2.029063200081318e-05</v>
+        <v>2.219575165622337e-14</v>
       </c>
       <c r="H89" t="n">
-        <v>6.356995141738802e-05</v>
+        <v>2.057326553591365e-05</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9822867985249152</v>
+        <v>0.9728339872971979</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4102,32 +4102,32 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7772.fa</t>
+          <t>even_MAG-GUT68475.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0002734041863853127</v>
+        <v>0.003457458932709345</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9834880499645927</v>
+        <v>0.9764022056577364</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01591652872062546</v>
+        <v>0.01981154326775898</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0002749691493098673</v>
+        <v>0.0003089308969932312</v>
       </c>
       <c r="F90" t="n">
-        <v>2.219590144616577e-14</v>
+        <v>2.219842881092059e-14</v>
       </c>
       <c r="G90" t="n">
-        <v>3.753898920280318e-06</v>
+        <v>2.219842881092059e-14</v>
       </c>
       <c r="H90" t="n">
-        <v>4.329408014415636e-05</v>
+        <v>1.986124475769418e-05</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9834880499645927</v>
+        <v>0.9764022056577364</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4143,32 +4143,32 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80568.fa</t>
+          <t>even_MAG-GUT68642.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3.311847735594213e-05</v>
+        <v>0.00972970935516587</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9833637346758616</v>
+        <v>0.9693932479444874</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01617306479521305</v>
+        <v>0.01299611411802148</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0003615054219173949</v>
+        <v>0.006502959305012769</v>
       </c>
       <c r="F91" t="n">
-        <v>2.219558407882943e-14</v>
+        <v>2.220876960692437e-14</v>
       </c>
       <c r="G91" t="n">
-        <v>1.192096009866501e-05</v>
+        <v>2.220876960692437e-14</v>
       </c>
       <c r="H91" t="n">
-        <v>5.665566953099937e-05</v>
+        <v>0.001377969277267917</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9833637346758616</v>
+        <v>0.9693932479444874</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4184,32 +4184,32 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81959.fa</t>
+          <t>even_MAG-GUT68659.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0005255798985941497</v>
+        <v>0.002179749099955535</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9748594656808766</v>
+        <v>0.9699141506772769</v>
       </c>
       <c r="D92" t="n">
-        <v>0.023681630413158</v>
+        <v>0.02760613045539033</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0008344253213587258</v>
+        <v>0.000294834460005134</v>
       </c>
       <c r="F92" t="n">
-        <v>2.219836086705099e-14</v>
+        <v>2.219339010677679e-14</v>
       </c>
       <c r="G92" t="n">
-        <v>1.6389620268171e-05</v>
+        <v>2.219339010677679e-14</v>
       </c>
       <c r="H92" t="n">
-        <v>8.250906572228137e-05</v>
+        <v>5.135307327685635e-06</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9748594656808766</v>
+        <v>0.9699141506772769</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4225,32 +4225,32 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85070.fa</t>
+          <t>even_MAG-GUT68697.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0001073470410880614</v>
+        <v>0.003909938086981393</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9949152018900496</v>
+        <v>0.9737008786628716</v>
       </c>
       <c r="D93" t="n">
-        <v>0.003861300414518631</v>
+        <v>0.01750171455698752</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0004665188871645075</v>
+        <v>0.003406088953370139</v>
       </c>
       <c r="F93" t="n">
-        <v>2.22008685994983e-14</v>
+        <v>2.220473134893369e-14</v>
       </c>
       <c r="G93" t="n">
-        <v>5.144042337082685e-07</v>
+        <v>2.220473134893369e-14</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0006491173629232785</v>
+        <v>0.001481379739745053</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9949152018900496</v>
+        <v>0.9737008786628716</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4266,32 +4266,32 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86606.fa</t>
+          <t>even_MAG-GUT68968.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.000106883386850602</v>
+        <v>0.002477615385014184</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9810126229384236</v>
+        <v>0.9868740927806219</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01865095450031424</v>
+        <v>0.008993823743481543</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0001865358063216138</v>
+        <v>0.001018585588385728</v>
       </c>
       <c r="F94" t="n">
-        <v>2.219524030627923e-14</v>
+        <v>2.220208315189669e-14</v>
       </c>
       <c r="G94" t="n">
-        <v>1.339356316150196e-05</v>
+        <v>2.220208315189669e-14</v>
       </c>
       <c r="H94" t="n">
-        <v>2.960980490645565e-05</v>
+        <v>0.0006358825024522564</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9810126229384236</v>
+        <v>0.9868740927806219</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4307,32 +4307,32 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88052.fa</t>
+          <t>even_MAG-GUT69048.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5.489500938900297e-05</v>
+        <v>0.002125385272846163</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9744300511760222</v>
+        <v>0.9639953006863292</v>
       </c>
       <c r="D95" t="n">
-        <v>0.02457848876009162</v>
+        <v>0.03344169462786328</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0008661092861392902</v>
+        <v>0.0004266524307804274</v>
       </c>
       <c r="F95" t="n">
-        <v>2.219344252294225e-14</v>
+        <v>2.219089646305098e-14</v>
       </c>
       <c r="G95" t="n">
-        <v>8.813010492111735e-06</v>
+        <v>2.219089646305098e-14</v>
       </c>
       <c r="H95" t="n">
-        <v>6.16427578435577e-05</v>
+        <v>1.096698213642206e-05</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9744300511760222</v>
+        <v>0.9639953006863292</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -4348,32 +4348,32 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88444.fa</t>
+          <t>even_MAG-GUT69064.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0001138865438667236</v>
+        <v>0.009592370014907328</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9926502472423236</v>
+        <v>0.9629638933665116</v>
       </c>
       <c r="D96" t="n">
-        <v>0.006003981291898695</v>
+        <v>0.02587950321963808</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0004049501283807841</v>
+        <v>0.001423290226332015</v>
       </c>
       <c r="F96" t="n">
-        <v>2.22003944831337e-14</v>
+        <v>2.220561998629356e-14</v>
       </c>
       <c r="G96" t="n">
-        <v>1.152604660307042e-06</v>
+        <v>2.220561998629356e-14</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0008257821888477291</v>
+        <v>0.0001409431725666527</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9926502472423236</v>
+        <v>0.9629638933665116</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4389,32 +4389,32 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9016.fa</t>
+          <t>even_MAG-GUT69117.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0001572687951265346</v>
+        <v>0.008852553692197739</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9950511356905974</v>
+        <v>0.9797497705403181</v>
       </c>
       <c r="D97" t="n">
-        <v>0.004064248651365193</v>
+        <v>0.008660851804615729</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0002003826483286607</v>
+        <v>0.00244120972322445</v>
       </c>
       <c r="F97" t="n">
-        <v>2.220034044380593e-14</v>
+        <v>2.220656420708405e-14</v>
       </c>
       <c r="G97" t="n">
-        <v>6.738446018383415e-07</v>
+        <v>2.220656420708405e-14</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0005262903699580446</v>
+        <v>0.0002956142395996992</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9950511356905974</v>
+        <v>0.9797497705403181</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4430,32 +4430,32 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91633.fa</t>
+          <t>even_MAG-GUT69121.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0001499662527224054</v>
+        <v>0.003028804171107681</v>
       </c>
       <c r="C98" t="n">
-        <v>0.988694439513697</v>
+        <v>0.9769613878240198</v>
       </c>
       <c r="D98" t="n">
-        <v>0.007059205156941879</v>
+        <v>0.01700466270820864</v>
       </c>
       <c r="E98" t="n">
-        <v>0.003648520005040692</v>
+        <v>0.002404105815755214</v>
       </c>
       <c r="F98" t="n">
-        <v>2.220291216864779e-14</v>
+        <v>2.220151199742742e-14</v>
       </c>
       <c r="G98" t="n">
-        <v>1.135262472417643e-06</v>
+        <v>2.220151199742742e-14</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0004467338091033176</v>
+        <v>0.0006010394808643207</v>
       </c>
       <c r="I98" t="n">
-        <v>0.988694439513697</v>
+        <v>0.9769613878240198</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4471,32 +4471,32 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91733.fa</t>
+          <t>even_MAG-GUT69224.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.001352497904309205</v>
+        <v>0.004777953128279042</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9763560433899506</v>
+        <v>0.9689620620563633</v>
       </c>
       <c r="D99" t="n">
-        <v>0.003669672552656298</v>
+        <v>0.009252320650738863</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003460083066977507</v>
+        <v>0.01181854708753905</v>
       </c>
       <c r="F99" t="n">
-        <v>2.220284132542785e-14</v>
+        <v>2.221015763921594e-14</v>
       </c>
       <c r="G99" t="n">
-        <v>9.668155292534332e-07</v>
+        <v>2.221015763921594e-14</v>
       </c>
       <c r="H99" t="n">
-        <v>0.01516073627055475</v>
+        <v>0.005189117077035375</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9763560433899506</v>
+        <v>0.9689620620563633</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4512,32 +4512,32 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91735.fa</t>
+          <t>even_MAG-GUT69229.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.001352497904309205</v>
+        <v>0.02234111776702616</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9763560433899506</v>
+        <v>0.959744666577216</v>
       </c>
       <c r="D100" t="n">
-        <v>0.003669672552656298</v>
+        <v>0.01542498393698536</v>
       </c>
       <c r="E100" t="n">
-        <v>0.003460083066977507</v>
+        <v>0.002037346301230661</v>
       </c>
       <c r="F100" t="n">
-        <v>2.220284132542785e-14</v>
+        <v>2.220980168127157e-14</v>
       </c>
       <c r="G100" t="n">
-        <v>9.668155292534332e-07</v>
+        <v>2.220980168127157e-14</v>
       </c>
       <c r="H100" t="n">
-        <v>0.01516073627055475</v>
+        <v>0.0004518854174974924</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9763560433899506</v>
+        <v>0.959744666577216</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4553,32 +4553,32 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91947.fa</t>
+          <t>even_MAG-GUT69253.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01390657952376664</v>
+        <v>0.0001346458215269132</v>
       </c>
       <c r="C101" t="n">
-        <v>0.840715526387249</v>
+        <v>0.9867915755705227</v>
       </c>
       <c r="D101" t="n">
-        <v>0.007114987543049295</v>
+        <v>0.01194244882168331</v>
       </c>
       <c r="E101" t="n">
-        <v>0.007250483937803191</v>
+        <v>0.0006869954216254577</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1102612470041258</v>
+        <v>2.219756879344293e-14</v>
       </c>
       <c r="G101" t="n">
-        <v>0.003980309196804637</v>
+        <v>2.219756879344293e-14</v>
       </c>
       <c r="H101" t="n">
-        <v>0.01677086640720145</v>
+        <v>0.0004443343645973855</v>
       </c>
       <c r="I101" t="n">
-        <v>0.840715526387249</v>
+        <v>0.9867915755705227</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4594,32 +4594,32 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92065.fa</t>
+          <t>even_MAG-GUT69434.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.004639979279891463</v>
+        <v>0.007368476478623383</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9692252414383674</v>
+        <v>0.9788658056439534</v>
       </c>
       <c r="D102" t="n">
-        <v>0.003936112613468527</v>
+        <v>0.00949584805522535</v>
       </c>
       <c r="E102" t="n">
-        <v>0.006022577727532285</v>
+        <v>0.003609776961615644</v>
       </c>
       <c r="F102" t="n">
-        <v>2.5880392091514e-14</v>
+        <v>2.220679618285589e-14</v>
       </c>
       <c r="G102" t="n">
-        <v>1.12784507874965e-06</v>
+        <v>2.220679618285589e-14</v>
       </c>
       <c r="H102" t="n">
-        <v>0.01617496109563568</v>
+        <v>0.0006600928605377236</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9692252414383674</v>
+        <v>0.9788658056439534</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4635,39 +4635,613 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT69447.fa</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.02030947751056219</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.9696007333759959</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.00864924120986597</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.001129033140552032</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.220608371135099e-14</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2.220608371135099e-14</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0003115147629794404</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.9696007333759959</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74324.fa</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.001508262187698161</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.953969726000471</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.04438222041138794</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0001348938435513458</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.218581221455684e-14</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2.218581221455684e-14</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4.897556847212317e-06</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.953969726000471</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7772.fa</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.01025277160326971</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.9631016349692501</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.02638315884213997</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0002534739429180111</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.220569917166886e-14</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2.220569917166886e-14</v>
+      </c>
+      <c r="H105" t="n">
+        <v>8.960642377800074e-06</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.9631016349692501</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80568.fa</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0006045081844132344</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9781342099516219</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.02091575578033052</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0003306162030544757</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.219362113495078e-14</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.219362113495078e-14</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.490988053555581e-05</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9781342099516219</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85070.fa</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.001021614450730289</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9893849564178198</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.008927704573436911</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0005216450933277995</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.219940007772269e-14</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2.219940007772269e-14</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0001440794646407723</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.9893849564178198</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86606.fa</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.001286778297457798</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.9674449382623383</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.03105026346421955</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0002135472032176605</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.219067110546875e-14</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2.219067110546875e-14</v>
+      </c>
+      <c r="H108" t="n">
+        <v>4.472772722361313e-06</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.9674449382623383</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88052.fa</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.0009560184690812102</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9663430785385457</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.03191863738324102</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0007645864668014803</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.219174238758722e-14</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2.219174238758722e-14</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.767914228635753e-05</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.9663430785385457</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88444.fa</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0005348948819047682</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9846186146015083</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.01440594335365063</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0003713933598990307</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.219617437079856e-14</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.219617437079856e-14</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6.915380299286141e-05</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.9846186146015083</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9016.fa</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.0005646434380001488</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9876591861459318</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.01143746764269895</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0002748619216791975</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.219744607683829e-14</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2.219744607683829e-14</v>
+      </c>
+      <c r="H111" t="n">
+        <v>6.384085164546075e-05</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9876591861459318</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91633.fa</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.0006848677130365373</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9894372778717476</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.009065853742282557</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0007555306967042537</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.219939535867123e-14</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2.219939535867123e-14</v>
+      </c>
+      <c r="H112" t="n">
+        <v>5.646997618446779e-05</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.9894372778717476</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91733.fa</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.00893244541270522</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.975867794612691</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.01158305897371773</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.002417552452674483</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.220707481464366e-14</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2.220707481464366e-14</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.001199148548167101</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.975867794612691</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91735.fa</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.00893244541270522</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.975867794612691</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.01158305897371773</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.002417552452674483</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.220707481464366e-14</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2.220707481464366e-14</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.001199148548167101</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.975867794612691</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91947.fa</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.01003955240611138</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9654411611006599</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.01825390703427048</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.004990734816707042</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.220785956523812e-14</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.220785956523812e-14</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.001274644642206837</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.9654411611006599</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92065.fa</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.01249601569235794</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9736464051143506</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.01011940279422272</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.002764439566239996</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.220782189868313e-14</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.220782189868313e-14</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.000973736832784244</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.9736464051143506</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9523.fa</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>7.578300767569499e-05</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.9847206740679719</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.01468934183725326</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.0004371845831434257</v>
-      </c>
-      <c r="F103" t="n">
-        <v>2.219633312472798e-14</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1.479549649806737e-05</v>
-      </c>
-      <c r="H103" t="n">
-        <v>6.222100743550399e-05</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.9847206740679719</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>f__Bifidobacteriaceae</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
+      <c r="B117" t="n">
+        <v>0.000927526353890754</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9793378646893541</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.01941071457640885</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0003118633944683609</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.219507611449506e-14</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2.219507611449506e-14</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.203098583328866e-05</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.9793378646893541</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>f__Bifidobacteriaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Actinomycetales.xlsx
+++ b/outputs-HGR-r202/o__Actinomycetales.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Actinomycetaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Actinomycetaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Actinomycetaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>f__Bifidobacteriaceae</t>
+          <t>f__Bifidobacteriaceae(reject)</t>
         </is>
       </c>
     </row>
